--- a/Use Case Detailed Descriptions.xlsx
+++ b/Use Case Detailed Descriptions.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B55D0E3-75ED-48E9-9805-15A6521676C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33AF0C4-AD00-419E-96D3-8C0CB40CACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Send Message" sheetId="1" r:id="rId1"/>
+    <sheet name="Send question" sheetId="1" r:id="rId1"/>
     <sheet name="Create event" sheetId="2" r:id="rId2"/>
     <sheet name="RSVP to events" sheetId="3" r:id="rId3"/>
-    <sheet name="Answer message" sheetId="4" r:id="rId4"/>
+    <sheet name="Answer question" sheetId="4" r:id="rId4"/>
     <sheet name="view events" sheetId="5" r:id="rId5"/>
     <sheet name="turn on notification" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="77">
   <si>
     <t>Use Case Title</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Postcondition</t>
   </si>
   <si>
-    <t>message to be sent for reply</t>
-  </si>
-  <si>
     <t>actor</t>
   </si>
   <si>
@@ -66,18 +63,12 @@
     <t>Actor</t>
   </si>
   <si>
-    <t>potiential members</t>
-  </si>
-  <si>
     <t>press create button</t>
   </si>
   <si>
     <t>RSVP to events</t>
   </si>
   <si>
-    <t>send message to admin</t>
-  </si>
-  <si>
     <t>Attendee</t>
   </si>
   <si>
@@ -87,42 +78,18 @@
     <t>press on event in calendar</t>
   </si>
   <si>
-    <t>Bring user to event view page</t>
-  </si>
-  <si>
-    <t>Select contact administrator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring user to chat page </t>
-  </si>
-  <si>
     <t>Type in question</t>
   </si>
   <si>
     <t xml:space="preserve">Press send </t>
   </si>
   <si>
-    <t>Send request to administrator(in their chat view)</t>
-  </si>
-  <si>
-    <t>Receive response</t>
-  </si>
-  <si>
-    <t>Send attendee response from administrator</t>
-  </si>
-  <si>
-    <t>create event</t>
-  </si>
-  <si>
     <t>admin</t>
   </si>
   <si>
     <t>event to be made and posted on the calendar view</t>
   </si>
   <si>
-    <t>Select create event in administrator screen</t>
-  </si>
-  <si>
     <t>1.1 Open create event screen</t>
   </si>
   <si>
@@ -132,21 +99,6 @@
     <t>3.1 post event to calendar view for users to see</t>
   </si>
   <si>
-    <t>Edit event information</t>
-  </si>
-  <si>
-    <t>4.1 update calendar with new information</t>
-  </si>
-  <si>
-    <t>remove event</t>
-  </si>
-  <si>
-    <t>5.1 remove event from calendar view</t>
-  </si>
-  <si>
-    <t>admin/ users</t>
-  </si>
-  <si>
     <t>User RSVP to event (adding them to attendee list)</t>
   </si>
   <si>
@@ -168,18 +120,9 @@
     <t>3.1 send user notification to inform them of the meeting</t>
   </si>
   <si>
-    <t>user removes rsvp</t>
-  </si>
-  <si>
-    <t>4.1 turn off notification 4.2 remove user from attendee list</t>
-  </si>
-  <si>
     <t>Answer question</t>
   </si>
   <si>
-    <t>administrator to respond to attendee question</t>
-  </si>
-  <si>
     <t>Receive chat from attendee</t>
   </si>
   <si>
@@ -192,12 +135,6 @@
     <t>3.1 send response to user chat box</t>
   </si>
   <si>
-    <t>receive user response</t>
-  </si>
-  <si>
-    <t>4.1 receive response from user chat box</t>
-  </si>
-  <si>
     <t>View events</t>
   </si>
   <si>
@@ -222,24 +159,6 @@
     <t>2.1 open event view and display details of event</t>
   </si>
   <si>
-    <t xml:space="preserve">RSVP to event </t>
-  </si>
-  <si>
-    <t>3.1 add user name to attendees list</t>
-  </si>
-  <si>
-    <t>contact event administrator</t>
-  </si>
-  <si>
-    <t>4.1 open chat box   4.2 send user message to event administrator</t>
-  </si>
-  <si>
-    <t>receive response from event administrator</t>
-  </si>
-  <si>
-    <t>5.1 send reply to attendee chat box</t>
-  </si>
-  <si>
     <t>turn on push notifications</t>
   </si>
   <si>
@@ -249,25 +168,94 @@
     <t xml:space="preserve">Notification to be sent to user </t>
   </si>
   <si>
-    <t>RSVP to event</t>
-  </si>
-  <si>
-    <t>1.1 add user to atendee list  1.2 pop up for event notification to enable</t>
-  </si>
-  <si>
     <t>turn on event notifications</t>
   </si>
   <si>
-    <t>2.1 ask user for time frame of notification(ex. 30 minutes before)</t>
-  </si>
-  <si>
     <t>Enter time frame for notification</t>
   </si>
   <si>
     <t xml:space="preserve">receive notification for event </t>
   </si>
   <si>
-    <t>4.1 send user notification for event during their selected time frame</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>user presses back arrow</t>
+  </si>
+  <si>
+    <t>Admin presses back arrow</t>
+  </si>
+  <si>
+    <t>User blocks or turns off notifications to the app, user presses back arrow</t>
+  </si>
+  <si>
+    <t>Bring attendee to event view page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring attendee to chat page </t>
+  </si>
+  <si>
+    <t>Attendees</t>
+  </si>
+  <si>
+    <t>Send question to admin</t>
+  </si>
+  <si>
+    <t>Question to be sent for reply</t>
+  </si>
+  <si>
+    <t>Send request to admin(in their chat view)</t>
+  </si>
+  <si>
+    <t>Select contact admin</t>
+  </si>
+  <si>
+    <t>Create event</t>
+  </si>
+  <si>
+    <t>Select create event in admin screen</t>
+  </si>
+  <si>
+    <t>: Admin presses the back arrow, Admin deletes event</t>
+  </si>
+  <si>
+    <t>admin to respond to attendee question</t>
+  </si>
+  <si>
+    <t>Users question will be sent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event is posted </t>
+  </si>
+  <si>
+    <t>User is added to attendee list</t>
+  </si>
+  <si>
+    <t>User will be notified by the app</t>
+  </si>
+  <si>
+    <t>potiential attendee</t>
+  </si>
+  <si>
+    <t>1.1 ask user for time frame of notification(ex. 30 minutes before)</t>
+  </si>
+  <si>
+    <t>3.1 send user notification for event during their selected time frame</t>
+  </si>
+  <si>
+    <t>user must rsvp to an event</t>
+  </si>
+  <si>
+    <t>User to be in the event details</t>
+  </si>
+  <si>
+    <t>Attendee recieves response to question</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>attendee press back arrow</t>
   </si>
 </sst>
 </file>
@@ -645,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -659,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -667,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -680,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -692,13 +680,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -706,10 +697,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -717,10 +708,10 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -728,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -739,7 +730,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -747,26 +738,23 @@
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>5</v>
-      </c>
       <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -779,7 +767,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -789,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -797,7 +785,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -810,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -822,13 +810,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -836,10 +827,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -847,10 +838,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -858,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -866,37 +857,18 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +881,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -919,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -927,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -940,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -952,13 +924,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -966,10 +941,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -977,10 +952,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -988,10 +963,10 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -999,26 +974,18 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +999,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1042,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1050,7 +1017,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1063,7 +1030,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1075,13 +1042,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1089,10 +1059,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1100,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1108,7 +1078,7 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -1116,26 +1086,18 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1110,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1158,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1166,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1179,7 +1141,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -1191,13 +1153,16 @@
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1205,10 +1170,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -1216,10 +1181,10 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -1227,48 +1192,18 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1280,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4448323E-6533-4DD4-8AEA-7FDD970AEB3B}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1291,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
@@ -1299,7 +1234,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -1312,25 +1247,31 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -1338,56 +1279,48 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" t="s">
         <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
